--- a/data/trans_dic/P39A1_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7866090040830435</v>
+        <v>0.7866090040830436</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7503907865766856</v>
+        <v>0.7503907865766855</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7657810381598151</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7417851941569944</v>
+        <v>0.7427078386722173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7110203478650415</v>
+        <v>0.7187919331395711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7366479566401938</v>
+        <v>0.7410046725075939</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8321322864560485</v>
+        <v>0.827772217921268</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7806245703282617</v>
+        <v>0.783156098074534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7913702348996783</v>
+        <v>0.7938263419991107</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.811319754493353</v>
+        <v>0.8113197544933529</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7766325811450282</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7928372431615694</v>
+        <v>0.7928372431615696</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7822425175208714</v>
+        <v>0.7798302281650483</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7546797738066817</v>
+        <v>0.7502244708595345</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.774540624316464</v>
+        <v>0.7734565635616862</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8394517793858027</v>
+        <v>0.838003823475696</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7982707418464073</v>
+        <v>0.7986501341991065</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8101148572050938</v>
+        <v>0.8097823189606744</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7759165550349202</v>
+        <v>0.7759165550349203</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7295534310998762</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7441715180355558</v>
+        <v>0.7470937580582043</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7039699101705337</v>
+        <v>0.7044367092645951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7341238677103883</v>
+        <v>0.7351303106075365</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8036039184565729</v>
+        <v>0.8027210902513114</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7526890960065379</v>
+        <v>0.7530135047932858</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7710491754719505</v>
+        <v>0.7718399051251892</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.5074539397740893</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4696476918212789</v>
+        <v>0.469647691821279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4894389781915885</v>
+        <v>0.4894389781915884</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4698492369131503</v>
+        <v>0.4726873404407117</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4393384729061955</v>
+        <v>0.4381927739004013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4630639478038188</v>
+        <v>0.4659839807221417</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5441029248487785</v>
+        <v>0.5435315144440346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5019867250133168</v>
+        <v>0.503117153593732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5129915284240067</v>
+        <v>0.5142232977557348</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6945043662358388</v>
+        <v>0.6926894980990272</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6673691701765258</v>
+        <v>0.6678602276400378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6836503410727967</v>
+        <v>0.6837738568852727</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7256687293133661</v>
+        <v>0.7271299614286461</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6955749433194677</v>
+        <v>0.6968369026187993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7059738488086866</v>
+        <v>0.7060486823364492</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>286563</v>
+        <v>286919</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>371727</v>
+        <v>375790</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>669704</v>
+        <v>673664</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>321465</v>
+        <v>319781</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>408117</v>
+        <v>409440</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>719453</v>
+        <v>721686</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>689530</v>
+        <v>687404</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>758745</v>
+        <v>754266</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1461454</v>
+        <v>1459409</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>739959</v>
+        <v>738683</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>802571</v>
+        <v>802952</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1528578</v>
+        <v>1527951</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>738133</v>
+        <v>741031</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>683073</v>
+        <v>683526</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1440498</v>
+        <v>1442473</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>797083</v>
+        <v>796207</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>730346</v>
+        <v>730660</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1512953</v>
+        <v>1514504</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>433373</v>
+        <v>435991</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>368861</v>
+        <v>367899</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>815895</v>
+        <v>821040</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>501863</v>
+        <v>501336</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>421459</v>
+        <v>422408</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>903865</v>
+        <v>906035</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2209945</v>
+        <v>2204170</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2227740</v>
+        <v>2229379</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4457495</v>
+        <v>4458300</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2309111</v>
+        <v>2313761</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2321893</v>
+        <v>2326106</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4603047</v>
+        <v>4603535</v>
       </c>
     </row>
     <row r="24">
